--- a/Assets/Resources/heros.xlsx
+++ b/Assets/Resources/heros.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
@@ -9,8 +9,13 @@
   <sheets>
     <sheet name="define" sheetId="2" r:id="rId1"/>
     <sheet name="card" sheetId="4" r:id="rId2"/>
+    <sheet name="card2" sheetId="5" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">card!$A$2:$AA$110</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="118">
   <si>
     <t>Attack</t>
   </si>
@@ -82,6 +87,12 @@
     <t>Tier</t>
   </si>
   <si>
+    <t>y/n</t>
+  </si>
+  <si>
+    <t>isTaunt</t>
+  </si>
+  <si>
     <t>Worm</t>
   </si>
   <si>
@@ -97,6 +108,9 @@
     <t>HitWeakest</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -109,28 +123,22 @@
     <t>Rat</t>
   </si>
   <si>
-    <t>ischeck</t>
-  </si>
-  <si>
     <t>isTaund</t>
   </si>
   <si>
+    <t>slot</t>
+  </si>
+  <si>
     <t>Goblin</t>
   </si>
   <si>
-    <t>Down dame + heal 2 (2t)</t>
-  </si>
-  <si>
-    <t>thorn back dame</t>
-  </si>
-  <si>
-    <t>Down dame + heal 3 (2t)</t>
-  </si>
-  <si>
-    <t>Down dame + heal 4 (2t)</t>
-  </si>
-  <si>
-    <t>Down dame + heal 5 (1t)</t>
+    <t>ReducesRandomDame_AndHeal</t>
+  </si>
+  <si>
+    <t>breakTaund</t>
+  </si>
+  <si>
+    <t>healsteal</t>
   </si>
   <si>
     <t>Spider</t>
@@ -142,39 +150,30 @@
     <t>Warrior</t>
   </si>
   <si>
+    <t>Gargoyle</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>Lizard</t>
+  </si>
+  <si>
+    <t>Uncommen</t>
+  </si>
+  <si>
+    <t>ReducesAllDame</t>
+  </si>
+  <si>
+    <t>Cougar</t>
+  </si>
+  <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
     <t>Tier 1</t>
   </si>
   <si>
-    <t>Gargoyle</t>
-  </si>
-  <si>
-    <t>Heal</t>
-  </si>
-  <si>
-    <t>Lizard</t>
-  </si>
-  <si>
-    <t>Uncommen</t>
-  </si>
-  <si>
-    <t>reduces dame all 2(3t)</t>
-  </si>
-  <si>
-    <t>reduces dame all 3(3t)</t>
-  </si>
-  <si>
-    <t>reduces dame all 3(2t)</t>
-  </si>
-  <si>
-    <t>reduces dame all 4(2t)</t>
-  </si>
-  <si>
-    <t>Cougar</t>
-  </si>
-  <si>
-    <t>Tier 2</t>
-  </si>
-  <si>
     <t>Gremlin</t>
   </si>
   <si>
@@ -202,10 +201,7 @@
     <t>Rare</t>
   </si>
   <si>
-    <t xml:space="preserve">add 6 dame to rd friend </t>
-  </si>
-  <si>
-    <t xml:space="preserve">add 5 dame to rd friend </t>
+    <t>AddDameRandom</t>
   </si>
   <si>
     <t>N</t>
@@ -217,13 +213,13 @@
     <t>Exceed</t>
   </si>
   <si>
-    <t>Rebirths</t>
-  </si>
-  <si>
     <t>Knight</t>
   </si>
   <si>
-    <t>add 1 armor</t>
+    <t>Addarmor</t>
+  </si>
+  <si>
+    <t>Tier 3</t>
   </si>
   <si>
     <t>HellHound</t>
@@ -247,18 +243,90 @@
     <t>Epic</t>
   </si>
   <si>
-    <t xml:space="preserve">reporn </t>
+    <t>Tier 4</t>
   </si>
   <si>
     <t>Drake</t>
   </si>
   <si>
+    <t>HealAll</t>
+  </si>
+  <si>
     <t>Werewolf</t>
   </si>
   <si>
     <t>hit 33% currnet hp</t>
   </si>
   <si>
+    <t>Witch doctor</t>
+  </si>
+  <si>
+    <t>AddDame</t>
+  </si>
+  <si>
+    <t>BloodKnight</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>AddarmorAll</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Deduction_Exceed</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>Tier 5</t>
+  </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>1 4</t>
+  </si>
+  <si>
+    <t>Necromancer</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>White walker</t>
+  </si>
+  <si>
+    <t>Uruk</t>
+  </si>
+  <si>
+    <t>HitRandom</t>
+  </si>
+  <si>
+    <t>DeathBringer</t>
+  </si>
+  <si>
+    <t>AddDameAll</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>3 10</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>ReducesDameRandom</t>
+  </si>
+  <si>
     <t>Number Hero</t>
   </si>
   <si>
@@ -311,16 +379,13 @@
   </si>
   <si>
     <t>WIN_BATTLE comlume</t>
-  </si>
-  <si>
-    <t>HealAll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +410,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -388,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +479,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,7 +773,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,15 +783,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B1">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -719,7 +799,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -727,7 +807,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -735,7 +815,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -743,7 +823,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -751,7 +831,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -759,7 +839,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -767,7 +847,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -775,7 +855,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -783,7 +863,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -791,7 +871,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -799,7 +879,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -807,7 +887,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -815,7 +895,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -823,7 +903,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -831,7 +911,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -839,7 +919,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B18">
         <v>15</v>
@@ -852,44 +932,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X102"/>
+  <dimension ref="A1:AA126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="14"/>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="18"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="L1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
       <c r="T1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -947,16 +1029,40 @@
       <c r="S2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -965,7 +1071,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3">
         <v>2</v>
@@ -974,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
@@ -983,7 +1089,7 @@
         <v>30</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M3" s="3">
         <v>2</v>
@@ -992,34 +1098,37 @@
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <v>1086</v>
+        <v>865</v>
       </c>
       <c r="Q3" s="3">
-        <v>2547</v>
+        <v>2035</v>
       </c>
       <c r="R3" s="3">
         <f>ROUND( P3/Q3*100,2)</f>
-        <v>42.64</v>
+        <v>42.51</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1028,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1037,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1046,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M4">
         <v>3</v>
@@ -1055,29 +1164,31 @@
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <v>1034</v>
+        <v>937</v>
       </c>
       <c r="Q4" s="3">
-        <v>2500</v>
+        <v>2243</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R67" si="0">ROUND( P4/Q4*100,2)</f>
-        <v>41.36</v>
-      </c>
-      <c r="S4" s="3"/>
+        <v>41.77</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
       <c r="T4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1086,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -1095,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1104,7 +1215,7 @@
         <v>30</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -1113,29 +1224,31 @@
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <v>1245</v>
+        <v>997</v>
       </c>
       <c r="Q5" s="3">
-        <v>2947</v>
+        <v>2379</v>
       </c>
       <c r="R5">
         <f t="shared" si="0"/>
-        <v>42.25</v>
-      </c>
-      <c r="S5" s="3"/>
+        <v>41.91</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
       <c r="T5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -1144,7 +1257,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -1153,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="2">
         <v>0</v>
@@ -1162,7 +1275,7 @@
         <v>30</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="2">
         <v>5</v>
@@ -1171,29 +1284,31 @@
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <v>1262</v>
+        <v>862</v>
       </c>
       <c r="Q6" s="3">
-        <v>3025</v>
+        <v>2021</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="0"/>
-        <v>41.72</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>42.65</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="T6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -1202,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3">
         <v>3</v>
@@ -1211,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J7" s="3">
         <v>0</v>
@@ -1223,28 +1338,31 @@
         <v>0</v>
       </c>
       <c r="P7" s="3">
-        <v>1093</v>
+        <v>822</v>
       </c>
       <c r="Q7" s="3">
-        <v>2614</v>
+        <v>1968</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" si="0"/>
-        <v>41.81</v>
+        <v>41.77</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1253,7 +1371,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1262,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1274,32 +1392,31 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>1010</v>
+        <v>832</v>
       </c>
       <c r="Q8" s="3">
-        <v>2462</v>
+        <v>1948</v>
       </c>
       <c r="R8">
         <f t="shared" si="0"/>
-        <v>41.02</v>
-      </c>
-      <c r="S8" s="3"/>
+        <v>42.71</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
       <c r="T8" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1308,7 +1425,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1317,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1329,32 +1446,34 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>1077</v>
+        <v>875</v>
       </c>
       <c r="Q9" s="3">
-        <v>2583</v>
+        <v>2150</v>
       </c>
       <c r="R9">
         <f t="shared" si="0"/>
-        <v>41.7</v>
-      </c>
-      <c r="S9" s="3"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -1363,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G10" s="2">
         <v>4</v>
@@ -1372,7 +1491,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J10" s="2">
         <v>1</v>
@@ -1384,32 +1503,34 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>1319</v>
+        <v>994</v>
       </c>
       <c r="Q10" s="3">
-        <v>3026</v>
+        <v>2392</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="0"/>
-        <v>43.59</v>
-      </c>
-      <c r="S10" s="3"/>
+        <v>41.56</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="T10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -1418,7 +1539,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
@@ -1427,7 +1548,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -1436,34 +1557,40 @@
         <v>35</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2</v>
       </c>
       <c r="P11" s="3">
-        <v>986</v>
+        <v>805</v>
       </c>
       <c r="Q11" s="3">
-        <v>2507</v>
+        <v>1971</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" si="0"/>
-        <v>39.33</v>
+        <v>40.840000000000003</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1472,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1481,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1489,33 +1616,44 @@
       <c r="K12">
         <v>35</v>
       </c>
-      <c r="L12" t="s">
-        <v>34</v>
+      <c r="L12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
       </c>
       <c r="P12" s="3">
-        <v>1086</v>
+        <v>875</v>
       </c>
       <c r="Q12" s="3">
-        <v>2550</v>
+        <v>2135</v>
       </c>
       <c r="R12">
         <f t="shared" si="0"/>
-        <v>42.59</v>
-      </c>
-      <c r="S12" s="3"/>
+        <v>40.98</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
       <c r="T12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1524,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1533,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1541,33 +1679,42 @@
       <c r="K13">
         <v>35</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
       <c r="P13" s="3">
-        <v>1149</v>
+        <v>873</v>
       </c>
       <c r="Q13" s="3">
-        <v>2658</v>
+        <v>2041</v>
       </c>
       <c r="R13">
         <f t="shared" si="0"/>
-        <v>43.23</v>
-      </c>
-      <c r="S13" s="3"/>
+        <v>42.77</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
       <c r="T13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
@@ -1576,7 +1723,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G14" s="2">
         <v>5</v>
@@ -1585,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J14" s="2">
         <v>0</v>
@@ -1593,33 +1740,44 @@
       <c r="K14" s="2">
         <v>35</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>36</v>
+      <c r="L14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="2">
+        <v>5</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
       </c>
       <c r="P14" s="3">
-        <v>1481</v>
+        <v>985</v>
       </c>
       <c r="Q14" s="3">
-        <v>3686</v>
+        <v>2302</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="0"/>
-        <v>40.18</v>
-      </c>
-      <c r="S14" s="3"/>
+        <v>42.79</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="T14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="X14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -1628,7 +1786,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3">
         <v>2</v>
@@ -1637,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1646,28 +1804,31 @@
         <v>35</v>
       </c>
       <c r="P15" s="3">
-        <v>1293</v>
+        <v>976</v>
       </c>
       <c r="Q15" s="3">
-        <v>3133</v>
+        <v>2269</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" si="0"/>
-        <v>41.27</v>
+        <v>43.01</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1676,7 +1837,7 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1685,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1694,18 +1855,20 @@
         <v>40</v>
       </c>
       <c r="P16" s="3">
-        <v>1292</v>
+        <v>895</v>
       </c>
       <c r="Q16" s="3">
-        <v>2980</v>
+        <v>2138</v>
       </c>
       <c r="R16">
         <f t="shared" si="0"/>
-        <v>43.36</v>
-      </c>
-      <c r="S16" s="3"/>
+        <v>41.86</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
       <c r="T16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
@@ -1713,10 +1876,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1725,7 +1888,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G17">
         <v>3</v>
@@ -1734,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1743,18 +1906,20 @@
         <v>40</v>
       </c>
       <c r="P17" s="3">
-        <v>1370</v>
+        <v>1246</v>
       </c>
       <c r="Q17" s="3">
-        <v>3137</v>
+        <v>2913</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>43.67</v>
-      </c>
-      <c r="S17" s="3"/>
+        <v>42.77</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
       <c r="T17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1762,10 +1927,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
@@ -1774,7 +1939,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -1783,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -1792,18 +1957,20 @@
         <v>40</v>
       </c>
       <c r="P18" s="3">
-        <v>1574</v>
+        <v>1078</v>
       </c>
       <c r="Q18" s="3">
-        <v>3705</v>
+        <v>2536</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="0"/>
-        <v>42.48</v>
-      </c>
-      <c r="S18" s="3"/>
+        <v>42.51</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="T18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1811,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3">
         <v>0</v>
@@ -1823,7 +1990,7 @@
         <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -1832,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
@@ -1841,17 +2008,20 @@
         <v>25</v>
       </c>
       <c r="P19" s="3">
-        <v>1272</v>
+        <v>998</v>
       </c>
       <c r="Q19" s="3">
-        <v>3054</v>
+        <v>2340</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" si="0"/>
-        <v>41.65</v>
+        <v>42.65</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -1859,10 +2029,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1871,7 +2041,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1880,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1889,18 +2059,20 @@
         <v>25</v>
       </c>
       <c r="P20" s="3">
-        <v>1542</v>
+        <v>1118</v>
       </c>
       <c r="Q20" s="3">
-        <v>3603</v>
+        <v>2624</v>
       </c>
       <c r="R20">
         <f t="shared" si="0"/>
-        <v>42.8</v>
-      </c>
-      <c r="S20" s="3"/>
+        <v>42.61</v>
+      </c>
+      <c r="S20" t="s">
+        <v>27</v>
+      </c>
       <c r="T20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -1908,10 +2080,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1920,7 +2092,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G21">
         <v>6</v>
@@ -1929,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1938,18 +2110,20 @@
         <v>25</v>
       </c>
       <c r="P21" s="3">
-        <v>2125</v>
+        <v>1315</v>
       </c>
       <c r="Q21" s="3">
-        <v>4864</v>
+        <v>3074</v>
       </c>
       <c r="R21">
         <f t="shared" si="0"/>
-        <v>43.69</v>
-      </c>
-      <c r="S21" s="3"/>
+        <v>42.78</v>
+      </c>
+      <c r="S21" t="s">
+        <v>27</v>
+      </c>
       <c r="T21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1957,10 +2131,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
@@ -1969,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G22" s="2">
         <v>7</v>
@@ -1978,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -1987,20 +2161,20 @@
         <v>25</v>
       </c>
       <c r="P22" s="3">
-        <v>5242</v>
+        <v>2221</v>
       </c>
       <c r="Q22" s="3">
-        <v>12435</v>
+        <v>5089</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="0"/>
-        <v>42.16</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>40</v>
+        <v>43.64</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2011,7 +2185,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -2020,7 +2194,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
@@ -2029,7 +2203,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
@@ -2047,17 +2221,20 @@
         <v>1</v>
       </c>
       <c r="P23" s="3">
-        <v>1585</v>
+        <v>1010</v>
       </c>
       <c r="Q23" s="3">
-        <v>3785</v>
+        <v>2387</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" si="0"/>
-        <v>41.88</v>
+        <v>42.31</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
@@ -2068,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2077,7 +2254,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -2086,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -2104,18 +2281,20 @@
         <v>1</v>
       </c>
       <c r="P24" s="3">
-        <v>1614</v>
+        <v>1340</v>
       </c>
       <c r="Q24" s="3">
-        <v>3698</v>
+        <v>3123</v>
       </c>
       <c r="R24">
         <f t="shared" si="0"/>
-        <v>43.65</v>
-      </c>
-      <c r="S24" s="3"/>
+        <v>42.91</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
       <c r="T24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
@@ -2126,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2135,7 +2314,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G25">
         <v>8</v>
@@ -2144,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -2162,18 +2341,20 @@
         <v>1</v>
       </c>
       <c r="P25" s="3">
-        <v>3264</v>
+        <v>1798</v>
       </c>
       <c r="Q25" s="3">
-        <v>7092</v>
+        <v>4135</v>
       </c>
       <c r="R25">
         <f t="shared" si="0"/>
-        <v>46.02</v>
-      </c>
-      <c r="S25" s="3"/>
+        <v>43.48</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
       <c r="T25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2184,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
@@ -2193,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2">
         <v>8</v>
@@ -2202,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J26" s="2">
         <v>3</v>
@@ -2220,20 +2401,20 @@
         <v>1</v>
       </c>
       <c r="P26" s="3">
-        <v>6101</v>
+        <v>3072</v>
       </c>
       <c r="Q26" s="3">
-        <v>12442</v>
+        <v>6786</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="0"/>
-        <v>49.04</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>40</v>
+        <v>45.27</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2253,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G27" s="5">
         <v>4</v>
@@ -2262,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -2273,19 +2454,27 @@
       <c r="L27" s="5" t="s">
         <v>45</v>
       </c>
+      <c r="M27" s="5">
+        <v>2</v>
+      </c>
+      <c r="O27" s="5">
+        <v>3</v>
+      </c>
       <c r="P27" s="3">
-        <v>1272</v>
+        <v>789</v>
       </c>
       <c r="Q27" s="3">
-        <v>3074</v>
+        <v>1884</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" si="0"/>
-        <v>41.38</v>
-      </c>
-      <c r="S27" s="3"/>
+        <v>41.88</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="T27" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2305,7 +2494,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G28" s="6">
         <v>4</v>
@@ -2314,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J28" s="6">
         <v>1</v>
@@ -2322,22 +2511,30 @@
       <c r="K28" s="6">
         <v>15</v>
       </c>
-      <c r="L28" s="6" t="s">
-        <v>46</v>
+      <c r="L28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" s="6">
+        <v>3</v>
+      </c>
+      <c r="O28" s="6">
+        <v>3</v>
       </c>
       <c r="P28" s="3">
-        <v>1120</v>
+        <v>845</v>
       </c>
       <c r="Q28" s="3">
-        <v>2630</v>
+        <v>2068</v>
       </c>
       <c r="R28" s="6">
         <f t="shared" si="0"/>
-        <v>42.59</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>40.86</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T28" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2357,7 +2554,7 @@
         <v>18</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="6">
         <v>5</v>
@@ -2366,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J29" s="6">
         <v>1</v>
@@ -2374,22 +2571,30 @@
       <c r="K29" s="6">
         <v>15</v>
       </c>
-      <c r="L29" s="6" t="s">
-        <v>47</v>
+      <c r="L29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="6">
+        <v>3</v>
+      </c>
+      <c r="O29" s="6">
+        <v>2</v>
       </c>
       <c r="P29" s="3">
-        <v>1622</v>
+        <v>1108</v>
       </c>
       <c r="Q29" s="3">
-        <v>3770</v>
+        <v>2661</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" si="0"/>
-        <v>43.02</v>
-      </c>
-      <c r="S29" s="3"/>
+        <v>41.64</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T29" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2409,7 +2614,7 @@
         <v>18</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G30" s="7">
         <v>5</v>
@@ -2418,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J30" s="7">
         <v>1</v>
@@ -2426,22 +2631,30 @@
       <c r="K30" s="7">
         <v>15</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>48</v>
+      <c r="L30" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" s="7">
+        <v>4</v>
+      </c>
+      <c r="O30" s="7">
+        <v>2</v>
       </c>
       <c r="P30" s="3">
-        <v>1637</v>
+        <v>945</v>
       </c>
       <c r="Q30" s="3">
-        <v>3709</v>
+        <v>2251</v>
       </c>
       <c r="R30" s="7">
         <f t="shared" si="0"/>
-        <v>44.14</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>41.98</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="T30" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2449,7 +2662,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>44</v>
@@ -2461,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G31" s="6">
         <v>8</v>
@@ -2470,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J31" s="6">
         <v>0</v>
@@ -2479,18 +2692,20 @@
         <v>45</v>
       </c>
       <c r="P31" s="3">
-        <v>2141</v>
+        <v>1255</v>
       </c>
       <c r="Q31" s="3">
-        <v>4815</v>
+        <v>2883</v>
       </c>
       <c r="R31" s="6">
         <f t="shared" si="0"/>
-        <v>44.47</v>
-      </c>
-      <c r="S31" s="3"/>
+        <v>43.53</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T31" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2498,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>44</v>
@@ -2510,7 +2725,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G32" s="6">
         <v>10</v>
@@ -2519,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J32" s="6">
         <v>0</v>
@@ -2528,18 +2743,20 @@
         <v>45</v>
       </c>
       <c r="P32" s="3">
-        <v>3006</v>
+        <v>1250</v>
       </c>
       <c r="Q32" s="3">
-        <v>6939</v>
+        <v>2879</v>
       </c>
       <c r="R32" s="6">
         <f t="shared" si="0"/>
-        <v>43.32</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>43.42</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T32" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2547,7 +2764,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>44</v>
@@ -2559,7 +2776,7 @@
         <v>22</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G33" s="6">
         <v>12</v>
@@ -2568,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J33" s="6">
         <v>1</v>
@@ -2577,20 +2794,20 @@
         <v>45</v>
       </c>
       <c r="P33" s="3">
-        <v>6671</v>
+        <v>4805</v>
       </c>
       <c r="Q33" s="3">
-        <v>12296</v>
+        <v>10704</v>
       </c>
       <c r="R33" s="6">
         <f t="shared" si="0"/>
-        <v>54.25</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>40</v>
+        <v>44.89</v>
+      </c>
+      <c r="S33" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2598,7 +2815,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>44</v>
@@ -2610,7 +2827,7 @@
         <v>22</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="7">
         <v>14</v>
@@ -2619,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J34" s="7">
         <v>1</v>
@@ -2628,20 +2845,20 @@
         <v>45</v>
       </c>
       <c r="P34" s="3">
-        <v>29955</v>
+        <v>3917</v>
       </c>
       <c r="Q34" s="3">
-        <v>53245</v>
+        <v>8519</v>
       </c>
       <c r="R34" s="7">
         <f t="shared" si="0"/>
-        <v>56.26</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>50</v>
+        <v>45.98</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2649,7 +2866,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>44</v>
@@ -2661,7 +2878,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G35" s="6">
         <v>3</v>
@@ -2670,7 +2887,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J35" s="6">
         <v>2</v>
@@ -2679,18 +2896,20 @@
         <v>15</v>
       </c>
       <c r="P35" s="3">
-        <v>1299</v>
+        <v>1161</v>
       </c>
       <c r="Q35" s="3">
-        <v>2993</v>
+        <v>2682</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="0"/>
-        <v>43.4</v>
-      </c>
-      <c r="S35" s="3"/>
+        <v>43.29</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T35" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2698,7 +2917,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>44</v>
@@ -2710,7 +2929,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G36" s="6">
         <v>3</v>
@@ -2719,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J36" s="6">
         <v>3</v>
@@ -2728,18 +2947,20 @@
         <v>15</v>
       </c>
       <c r="P36" s="3">
-        <v>2038</v>
+        <v>1476</v>
       </c>
       <c r="Q36" s="3">
-        <v>4750</v>
+        <v>3413</v>
       </c>
       <c r="R36" s="6">
         <f t="shared" si="0"/>
-        <v>42.91</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>43.25</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T36" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2747,7 +2968,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>44</v>
@@ -2759,7 +2980,7 @@
         <v>24</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G37" s="6">
         <v>3</v>
@@ -2768,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J37" s="6">
         <v>3</v>
@@ -2777,18 +2998,20 @@
         <v>15</v>
       </c>
       <c r="P37" s="3">
-        <v>2142</v>
+        <v>1790</v>
       </c>
       <c r="Q37" s="3">
-        <v>4838</v>
+        <v>4128</v>
       </c>
       <c r="R37" s="6">
         <f t="shared" si="0"/>
-        <v>44.27</v>
-      </c>
-      <c r="S37" s="3"/>
+        <v>43.36</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T37" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2796,7 +3019,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>44</v>
@@ -2808,7 +3031,7 @@
         <v>24</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G38" s="7">
         <v>3</v>
@@ -2817,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J38" s="7">
         <v>4</v>
@@ -2826,18 +3049,20 @@
         <v>15</v>
       </c>
       <c r="P38" s="3">
-        <v>3074</v>
+        <v>1984</v>
       </c>
       <c r="Q38" s="3">
-        <v>7099</v>
+        <v>4555</v>
       </c>
       <c r="R38" s="7">
         <f t="shared" si="0"/>
-        <v>43.3</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>43.56</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="T38" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2845,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>44</v>
@@ -2857,7 +3082,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G39" s="6">
         <v>2</v>
@@ -2866,7 +3091,7 @@
         <v>1</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -2875,18 +3100,20 @@
         <v>25</v>
       </c>
       <c r="P39" s="3">
-        <v>1061</v>
+        <v>1001</v>
       </c>
       <c r="Q39" s="3">
-        <v>2519</v>
+        <v>2376</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="0"/>
-        <v>42.12</v>
-      </c>
-      <c r="S39" s="3"/>
+        <v>42.13</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T39" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2894,7 +3121,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>44</v>
@@ -2906,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G40" s="6">
         <v>3</v>
@@ -2915,7 +3142,7 @@
         <v>1</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J40" s="6">
         <v>0</v>
@@ -2924,7 +3151,7 @@
         <v>25</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M40" s="6">
         <v>5</v>
@@ -2933,18 +3160,20 @@
         <v>4</v>
       </c>
       <c r="P40" s="3">
-        <v>1620</v>
+        <v>1097</v>
       </c>
       <c r="Q40" s="3">
-        <v>3773</v>
+        <v>2552</v>
       </c>
       <c r="R40" s="6">
         <f t="shared" si="0"/>
-        <v>42.94</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>42.99</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T40" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2952,7 +3181,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>44</v>
@@ -2964,7 +3193,7 @@
         <v>18</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G41" s="6">
         <v>4</v>
@@ -2973,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J41" s="6">
         <v>0</v>
@@ -2982,7 +3211,7 @@
         <v>25</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M41" s="6">
         <v>6</v>
@@ -2991,18 +3220,20 @@
         <v>3</v>
       </c>
       <c r="P41" s="3">
-        <v>3184</v>
+        <v>1798</v>
       </c>
       <c r="Q41" s="3">
-        <v>7106</v>
+        <v>4170</v>
       </c>
       <c r="R41" s="6">
         <f t="shared" si="0"/>
-        <v>44.81</v>
-      </c>
-      <c r="S41" s="3"/>
+        <v>43.12</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T41" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3010,7 +3241,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>44</v>
@@ -3022,7 +3253,7 @@
         <v>22</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G42" s="7">
         <v>5</v>
@@ -3031,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J42" s="7">
         <v>0</v>
@@ -3040,7 +3271,7 @@
         <v>25</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M42" s="7">
         <v>7</v>
@@ -3049,20 +3280,20 @@
         <v>3</v>
       </c>
       <c r="P42" s="3">
-        <v>6629</v>
+        <v>2278</v>
       </c>
       <c r="Q42" s="3">
-        <v>12512</v>
+        <v>5135</v>
       </c>
       <c r="R42" s="7">
         <f t="shared" si="0"/>
-        <v>52.98</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>40</v>
+        <v>44.36</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3070,7 +3301,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>44</v>
@@ -3082,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G43" s="6">
         <v>6</v>
@@ -3091,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3100,18 +3331,20 @@
         <v>30</v>
       </c>
       <c r="P43" s="3">
-        <v>2014</v>
+        <v>1077</v>
       </c>
       <c r="Q43" s="3">
-        <v>4841</v>
+        <v>2572</v>
       </c>
       <c r="R43" s="6">
         <f t="shared" si="0"/>
-        <v>41.6</v>
-      </c>
-      <c r="S43" s="3"/>
+        <v>41.87</v>
+      </c>
+      <c r="S43" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T43" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3119,7 +3352,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>44</v>
@@ -3131,7 +3364,7 @@
         <v>20</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G44" s="6">
         <v>7</v>
@@ -3140,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3149,18 +3382,20 @@
         <v>30</v>
       </c>
       <c r="P44" s="3">
-        <v>2201</v>
+        <v>1486</v>
       </c>
       <c r="Q44" s="3">
-        <v>4924</v>
+        <v>3408</v>
       </c>
       <c r="R44" s="6">
         <f t="shared" si="0"/>
-        <v>44.7</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>43.6</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T44" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3168,7 +3403,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>44</v>
@@ -3180,7 +3415,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G45" s="6">
         <v>8</v>
@@ -3189,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J45" s="6">
         <v>2</v>
@@ -3198,20 +3433,20 @@
         <v>30</v>
       </c>
       <c r="P45" s="3">
-        <v>5721</v>
+        <v>2608</v>
       </c>
       <c r="Q45" s="3">
-        <v>12391</v>
+        <v>5922</v>
       </c>
       <c r="R45" s="6">
         <f t="shared" si="0"/>
-        <v>46.17</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>40</v>
+        <v>44.04</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3219,7 +3454,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>44</v>
@@ -3231,7 +3466,7 @@
         <v>28</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G46" s="7">
         <v>9</v>
@@ -3240,7 +3475,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -3249,20 +3484,20 @@
         <v>30</v>
       </c>
       <c r="P46" s="3">
-        <v>25193</v>
+        <v>4795</v>
       </c>
       <c r="Q46" s="3">
-        <v>53548</v>
+        <v>10617</v>
       </c>
       <c r="R46" s="7">
         <f t="shared" si="0"/>
-        <v>47.05</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>50</v>
+        <v>45.16</v>
+      </c>
+      <c r="S46" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3270,7 +3505,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>44</v>
@@ -3282,7 +3517,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G47" s="6">
         <v>4</v>
@@ -3291,7 +3526,7 @@
         <v>2</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J47" s="6">
         <v>0</v>
@@ -3300,7 +3535,7 @@
         <v>50</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M47" s="6">
         <v>4</v>
@@ -3309,18 +3544,20 @@
         <v>2</v>
       </c>
       <c r="P47" s="3">
-        <v>1631</v>
+        <v>852</v>
       </c>
       <c r="Q47" s="3">
-        <v>3701</v>
+        <v>2009</v>
       </c>
       <c r="R47" s="6">
         <f t="shared" si="0"/>
-        <v>44.07</v>
-      </c>
-      <c r="S47" s="3"/>
+        <v>42.41</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T47" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3328,7 +3565,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>44</v>
@@ -3340,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G48" s="6">
         <v>5</v>
@@ -3349,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J48" s="6">
         <v>0</v>
@@ -3358,7 +3595,7 @@
         <v>50</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M48" s="6">
         <v>5</v>
@@ -3367,18 +3604,20 @@
         <v>2</v>
       </c>
       <c r="P48" s="3">
-        <v>2905</v>
+        <v>1335</v>
       </c>
       <c r="Q48" s="3">
-        <v>7025</v>
+        <v>3106</v>
       </c>
       <c r="R48" s="6">
         <f t="shared" si="0"/>
-        <v>41.35</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>42.98</v>
+      </c>
+      <c r="S48" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T48" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3386,7 +3625,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>44</v>
@@ -3398,7 +3637,7 @@
         <v>18</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G49" s="6">
         <v>6</v>
@@ -3407,7 +3646,7 @@
         <v>2</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J49" s="6">
         <v>0</v>
@@ -3416,7 +3655,7 @@
         <v>50</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M49" s="6">
         <v>6</v>
@@ -3425,18 +3664,20 @@
         <v>2</v>
       </c>
       <c r="P49" s="3">
-        <v>3231</v>
+        <v>1682</v>
       </c>
       <c r="Q49" s="3">
-        <v>6914</v>
+        <v>3812</v>
       </c>
       <c r="R49" s="6">
         <f t="shared" si="0"/>
-        <v>46.73</v>
-      </c>
-      <c r="S49" s="3"/>
+        <v>44.12</v>
+      </c>
+      <c r="S49" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="T49" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3444,7 +3685,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>44</v>
@@ -3456,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G50" s="7">
         <v>7</v>
@@ -3465,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J50" s="7">
         <v>0</v>
@@ -3474,7 +3715,7 @@
         <v>50</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M50" s="7">
         <v>7</v>
@@ -3483,20 +3724,20 @@
         <v>2</v>
       </c>
       <c r="P50" s="3">
-        <v>6665</v>
+        <v>3041</v>
       </c>
       <c r="Q50" s="3">
-        <v>12290</v>
+        <v>6854</v>
       </c>
       <c r="R50" s="7">
         <f t="shared" si="0"/>
-        <v>54.23</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>40</v>
+        <v>44.37</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3504,10 +3745,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="8">
         <v>0</v>
@@ -3516,7 +3757,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G51" s="8">
         <v>7</v>
@@ -3525,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J51" s="8">
         <v>1</v>
@@ -3534,24 +3775,29 @@
         <v>20</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="M51" s="8">
+        <v>6</v>
       </c>
       <c r="O51" s="8">
         <v>3</v>
       </c>
       <c r="P51" s="3">
-        <v>1980</v>
+        <v>1259</v>
       </c>
       <c r="Q51" s="3">
-        <v>4896</v>
+        <v>2894</v>
       </c>
       <c r="R51" s="8">
         <f t="shared" si="0"/>
-        <v>40.44</v>
-      </c>
-      <c r="S51" s="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="T51" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3559,10 +3805,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="9">
         <v>0</v>
@@ -3571,7 +3817,7 @@
         <v>20</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G52" s="9">
         <v>7</v>
@@ -3580,7 +3826,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J52" s="9">
         <v>1</v>
@@ -3588,25 +3834,30 @@
       <c r="K52" s="9">
         <v>20</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>61</v>
+      <c r="L52" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M52" s="9">
+        <v>5</v>
       </c>
       <c r="O52" s="9">
         <v>2</v>
       </c>
       <c r="P52" s="3">
-        <v>2122</v>
+        <v>1169</v>
       </c>
       <c r="Q52" s="3">
-        <v>4865</v>
+        <v>2672</v>
       </c>
       <c r="R52" s="9">
         <f t="shared" si="0"/>
-        <v>43.62</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>43.75</v>
+      </c>
+      <c r="S52" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T52" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3614,10 +3865,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D53" s="9">
         <v>0</v>
@@ -3626,7 +3877,7 @@
         <v>20</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G53" s="9">
         <v>9</v>
@@ -3635,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J53" s="9">
         <v>1</v>
@@ -3643,25 +3894,30 @@
       <c r="K53" s="9">
         <v>20</v>
       </c>
-      <c r="L53" s="9">
+      <c r="L53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M53" s="9">
         <v>5</v>
       </c>
       <c r="O53" s="9">
         <v>2</v>
       </c>
       <c r="P53" s="3">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="Q53" s="3">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9" t="e">
+        <v>3493</v>
+      </c>
+      <c r="R53" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S53" s="3"/>
+        <v>43.03</v>
+      </c>
+      <c r="S53" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T53" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -3669,10 +3925,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D54" s="10">
         <v>0</v>
@@ -3681,7 +3937,7 @@
         <v>25</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G54" s="10">
         <v>9</v>
@@ -3690,7 +3946,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J54" s="10">
         <v>1</v>
@@ -3698,25 +3954,23 @@
       <c r="K54" s="10">
         <v>20</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M54" s="10">
         <v>4</v>
       </c>
       <c r="O54" s="10">
         <v>1</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
       <c r="R54" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S54" s="3"/>
       <c r="T54" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3724,10 +3978,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="8">
         <v>0</v>
@@ -3736,7 +3990,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G55" s="8">
         <v>5</v>
@@ -3745,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J55" s="8">
         <v>7</v>
@@ -3754,18 +4008,20 @@
         <v>35</v>
       </c>
       <c r="P55" s="3">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="Q55" s="3">
-        <v>3038</v>
+        <v>3029</v>
       </c>
       <c r="R55" s="8">
         <f t="shared" si="0"/>
-        <v>43.75</v>
-      </c>
-      <c r="S55" s="3"/>
+        <v>43.61</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="T55" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3773,10 +4029,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="9">
         <v>0</v>
@@ -3785,7 +4041,7 @@
         <v>17</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G56" s="9">
         <v>6</v>
@@ -3794,7 +4050,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J56" s="9">
         <v>7</v>
@@ -3802,22 +4058,24 @@
       <c r="K56" s="9">
         <v>35</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>65</v>
+      <c r="N56" s="9">
+        <v>53</v>
       </c>
       <c r="P56" s="3">
-        <v>1651</v>
+        <v>1563</v>
       </c>
       <c r="Q56" s="3">
-        <v>3767</v>
+        <v>3638</v>
       </c>
       <c r="R56" s="9">
         <f t="shared" si="0"/>
-        <v>43.83</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>42.96</v>
+      </c>
+      <c r="S56" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T56" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3825,10 +4083,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="9">
         <v>0</v>
@@ -3837,7 +4095,7 @@
         <v>19</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G57" s="9">
         <v>7</v>
@@ -3846,7 +4104,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J57" s="9">
         <v>7</v>
@@ -3854,22 +4112,24 @@
       <c r="K57" s="9">
         <v>35</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>65</v>
+      <c r="N57" s="9">
+        <v>53</v>
       </c>
       <c r="P57" s="3">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="9" t="e">
+        <v>4114</v>
+      </c>
+      <c r="R57" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S57" s="3"/>
+        <v>43.87</v>
+      </c>
+      <c r="S57" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T57" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -3877,10 +4137,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" s="10">
         <v>0</v>
@@ -3889,7 +4149,7 @@
         <v>21</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G58" s="10">
         <v>8</v>
@@ -3898,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J58" s="10">
         <v>7</v>
@@ -3906,22 +4166,17 @@
       <c r="K58" s="10">
         <v>35</v>
       </c>
-      <c r="L58" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
+      <c r="N58" s="10">
+        <v>53</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S58" s="3"/>
       <c r="T58" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -3929,10 +4184,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
@@ -3941,7 +4196,7 @@
         <v>24</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G59" s="8">
         <v>8</v>
@@ -3950,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J59" s="8">
         <v>2</v>
@@ -3959,20 +4214,20 @@
         <v>30</v>
       </c>
       <c r="P59" s="3">
-        <v>5603</v>
+        <v>2315</v>
       </c>
       <c r="Q59" s="3">
-        <v>12205</v>
+        <v>5144</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" si="0"/>
-        <v>45.91</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3980,10 +4235,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D60" s="9">
         <v>0</v>
@@ -3992,7 +4247,7 @@
         <v>28</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G60" s="9">
         <v>10</v>
@@ -4001,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J60" s="9">
         <v>2</v>
@@ -4010,26 +4265,29 @@
         <v>30</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
+      </c>
+      <c r="M60" s="9">
+        <v>1</v>
       </c>
       <c r="O60" s="9">
         <v>3</v>
       </c>
       <c r="P60" s="3">
-        <v>24852</v>
+        <v>3811</v>
       </c>
       <c r="Q60" s="3">
-        <v>53207</v>
+        <v>8373</v>
       </c>
       <c r="R60" s="9">
         <f t="shared" si="0"/>
-        <v>46.71</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>50</v>
+        <v>45.52</v>
+      </c>
+      <c r="S60" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="T60" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4037,10 +4295,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61" s="9">
         <v>0</v>
@@ -4049,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G61" s="9">
         <v>12</v>
@@ -4058,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J61" s="9">
         <v>3</v>
@@ -4066,25 +4324,30 @@
       <c r="K61" s="9">
         <v>30</v>
       </c>
-      <c r="L61" s="9">
+      <c r="L61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M61" s="9">
         <v>1</v>
       </c>
       <c r="O61" s="9">
         <v>2</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="9" t="e">
+        <v>14430</v>
+      </c>
+      <c r="R61" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S61" s="3"/>
+        <v>46.51</v>
+      </c>
+      <c r="S61" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="T61" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -4092,10 +4355,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D62" s="10">
         <v>0</v>
@@ -4104,7 +4367,7 @@
         <v>36</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G62" s="10">
         <v>14</v>
@@ -4113,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J62" s="10">
         <v>3</v>
@@ -4121,25 +4384,23 @@
       <c r="K62" s="10">
         <v>30</v>
       </c>
-      <c r="L62" s="10">
+      <c r="L62" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M62" s="10">
         <v>1</v>
       </c>
       <c r="O62" s="10">
         <v>1</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
       <c r="R62" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S62" s="3"/>
       <c r="T62" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4147,10 +4408,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D63" s="8">
         <v>0</v>
@@ -4159,7 +4420,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" s="8">
         <v>3</v>
@@ -4168,7 +4429,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J63" s="8">
         <v>3</v>
@@ -4177,18 +4438,20 @@
         <v>40</v>
       </c>
       <c r="P63" s="3">
-        <v>3227</v>
+        <v>2035</v>
       </c>
       <c r="Q63" s="3">
-        <v>7117</v>
+        <v>4655</v>
       </c>
       <c r="R63" s="8">
         <f t="shared" si="0"/>
-        <v>45.34</v>
-      </c>
-      <c r="S63" s="3"/>
+        <v>43.72</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="T63" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4196,10 +4459,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D64" s="9">
         <v>0</v>
@@ -4208,7 +4471,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" s="9">
         <v>3</v>
@@ -4217,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J64" s="9">
         <v>3</v>
@@ -4226,18 +4489,20 @@
         <v>40</v>
       </c>
       <c r="P64" s="3">
-        <v>3338</v>
+        <v>2062</v>
       </c>
       <c r="Q64" s="3">
-        <v>7108</v>
+        <v>4670</v>
       </c>
       <c r="R64" s="9">
         <f t="shared" si="0"/>
-        <v>46.96</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>44.15</v>
+      </c>
+      <c r="S64" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T64" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4245,10 +4510,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="9">
         <v>0</v>
@@ -4257,7 +4522,7 @@
         <v>16</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" s="9">
         <v>4</v>
@@ -4266,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J65" s="9">
         <v>3</v>
@@ -4275,18 +4540,20 @@
         <v>40</v>
       </c>
       <c r="P65" s="3">
-        <v>0</v>
+        <v>2574</v>
       </c>
       <c r="Q65" s="3">
-        <v>0</v>
-      </c>
-      <c r="R65" s="9" t="e">
+        <v>5881</v>
+      </c>
+      <c r="R65" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S65" s="3"/>
+        <v>43.77</v>
+      </c>
+      <c r="S65" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T65" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -4294,10 +4561,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="10">
         <v>0</v>
@@ -4306,7 +4573,7 @@
         <v>18</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" s="10">
         <v>4</v>
@@ -4315,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J66" s="10">
         <v>3</v>
@@ -4323,19 +4590,14 @@
       <c r="K66" s="10">
         <v>40</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
       <c r="R66" s="10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S66" s="3"/>
       <c r="T66" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4343,10 +4605,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="8">
         <v>0</v>
@@ -4355,7 +4617,7 @@
         <v>30</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G67" s="8">
         <v>3</v>
@@ -4364,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J67" s="8">
         <v>6</v>
@@ -4373,18 +4635,20 @@
         <v>10</v>
       </c>
       <c r="P67" s="3">
-        <v>2089</v>
+        <v>1513</v>
       </c>
       <c r="Q67" s="3">
-        <v>4961</v>
+        <v>3407</v>
       </c>
       <c r="R67" s="8">
         <f t="shared" si="0"/>
-        <v>42.11</v>
-      </c>
-      <c r="S67" s="3"/>
+        <v>44.41</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="T67" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4392,10 +4656,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D68" s="9">
         <v>0</v>
@@ -4404,7 +4668,7 @@
         <v>35</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G68" s="9">
         <v>3</v>
@@ -4413,7 +4677,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J68" s="9">
         <v>6</v>
@@ -4422,18 +4686,20 @@
         <v>10</v>
       </c>
       <c r="P68" s="3">
-        <v>2153</v>
+        <v>2366</v>
       </c>
       <c r="Q68" s="3">
-        <v>4831</v>
+        <v>5302</v>
       </c>
       <c r="R68" s="9">
         <f t="shared" ref="R68:R82" si="1">ROUND( P68/Q68*100,2)</f>
-        <v>44.57</v>
-      </c>
-      <c r="S68" s="3"/>
+        <v>44.62</v>
+      </c>
+      <c r="S68" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T68" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4441,10 +4707,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D69" s="9">
         <v>0</v>
@@ -4453,7 +4719,7 @@
         <v>40</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G69" s="9">
         <v>3</v>
@@ -4462,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J69" s="9">
         <v>6</v>
@@ -4471,18 +4737,20 @@
         <v>10</v>
       </c>
       <c r="P69" s="3">
-        <v>0</v>
+        <v>2058</v>
       </c>
       <c r="Q69" s="3">
-        <v>0</v>
-      </c>
-      <c r="R69" s="9" t="e">
+        <v>4611</v>
+      </c>
+      <c r="R69" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S69" s="3"/>
+        <v>44.63</v>
+      </c>
+      <c r="S69" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="T69" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -4490,10 +4758,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D70" s="10">
         <v>0</v>
@@ -4502,7 +4770,7 @@
         <v>45</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G70" s="10">
         <v>3</v>
@@ -4511,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J70" s="10">
         <v>6</v>
@@ -4519,19 +4787,14 @@
       <c r="K70" s="10">
         <v>10</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
       <c r="R70" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S70" s="3"/>
       <c r="T70" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
@@ -4539,10 +4802,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D71" s="8">
         <v>0</v>
@@ -4551,7 +4814,7 @@
         <v>15</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G71" s="8">
         <v>12</v>
@@ -4560,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J71" s="8">
         <v>2</v>
@@ -4569,20 +4832,20 @@
         <v>15</v>
       </c>
       <c r="P71" s="3">
-        <v>5187</v>
+        <v>2522</v>
       </c>
       <c r="Q71" s="3">
-        <v>12184</v>
+        <v>5794</v>
       </c>
       <c r="R71" s="8">
         <f t="shared" si="1"/>
-        <v>42.57</v>
-      </c>
-      <c r="S71" s="3" t="s">
-        <v>40</v>
+        <v>43.53</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4590,10 +4853,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D72" s="9">
         <v>0</v>
@@ -4602,7 +4865,7 @@
         <v>20</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G72" s="9">
         <v>12</v>
@@ -4611,7 +4874,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J72" s="9">
         <v>2</v>
@@ -4620,20 +4883,20 @@
         <v>15</v>
       </c>
       <c r="P72" s="3">
-        <v>5853</v>
+        <v>3107</v>
       </c>
       <c r="Q72" s="3">
-        <v>12242</v>
+        <v>6996</v>
       </c>
       <c r="R72" s="9">
         <f t="shared" si="1"/>
-        <v>47.81</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>40</v>
+        <v>44.41</v>
+      </c>
+      <c r="S72" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="T72" s="9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4641,10 +4904,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D73" s="9">
         <v>0</v>
@@ -4653,7 +4916,7 @@
         <v>25</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G73" s="9">
         <v>18</v>
@@ -4662,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J73" s="9">
         <v>2</v>
@@ -4671,24 +4934,26 @@
         <v>15</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O73" s="9">
         <v>2</v>
       </c>
       <c r="P73" s="3">
-        <v>0</v>
+        <v>6769</v>
       </c>
       <c r="Q73" s="3">
-        <v>0</v>
-      </c>
-      <c r="R73" s="9" t="e">
+        <v>14514</v>
+      </c>
+      <c r="R73" s="9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S73" s="3"/>
+        <v>46.64</v>
+      </c>
+      <c r="S73" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="T73" s="9" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -4696,10 +4961,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D74" s="10">
         <v>0</v>
@@ -4708,7 +4973,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G74" s="10">
         <v>18</v>
@@ -4717,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J74" s="10">
         <v>2</v>
@@ -4726,24 +4991,19 @@
         <v>15</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O74" s="10">
         <v>2</v>
       </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0</v>
-      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
       <c r="R74" s="10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S74" s="3"/>
       <c r="T74" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -4751,10 +5011,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D75" s="11">
         <v>0</v>
@@ -4763,7 +5023,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G75" s="11">
         <v>6</v>
@@ -4772,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J75" s="11">
         <v>2</v>
@@ -4780,25 +5040,33 @@
       <c r="K75" s="11">
         <v>30</v>
       </c>
-      <c r="L75" s="11" t="s">
-        <v>75</v>
+      <c r="L75" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" s="11">
+        <v>2</v>
+      </c>
+      <c r="N75" s="11">
+        <v>41</v>
       </c>
       <c r="O75" s="11">
         <v>3</v>
       </c>
       <c r="P75" s="3">
-        <v>2968</v>
+        <v>6612</v>
       </c>
       <c r="Q75" s="3">
-        <v>6894</v>
+        <v>14438</v>
       </c>
       <c r="R75" s="11">
         <f t="shared" si="1"/>
-        <v>43.05</v>
-      </c>
-      <c r="S75" s="3"/>
+        <v>45.8</v>
+      </c>
+      <c r="S75" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="T75" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4806,10 +5074,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D76" s="12">
         <v>0</v>
@@ -4818,7 +5086,7 @@
         <v>24</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G76" s="12">
         <v>8</v>
@@ -4827,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J76" s="12">
         <v>2</v>
@@ -4836,26 +5104,32 @@
         <v>30</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="M76" s="12">
+        <v>3</v>
+      </c>
+      <c r="N76" s="12">
+        <v>42</v>
       </c>
       <c r="O76" s="12">
         <v>3</v>
       </c>
       <c r="P76" s="3">
-        <v>5599</v>
+        <v>11079</v>
       </c>
       <c r="Q76" s="3">
-        <v>12132</v>
+        <v>23099</v>
       </c>
       <c r="R76" s="12">
         <f t="shared" si="1"/>
-        <v>46.15</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>40</v>
+        <v>47.96</v>
+      </c>
+      <c r="S76" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="T76" s="12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -4863,10 +5137,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D77" s="12">
         <v>0</v>
@@ -4875,7 +5149,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G77" s="12">
         <v>10</v>
@@ -4884,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J77" s="12">
         <v>3</v>
@@ -4893,24 +5167,25 @@
         <v>30</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="M77" s="12">
+        <v>3</v>
+      </c>
+      <c r="N77" s="12">
+        <v>43</v>
       </c>
       <c r="O77" s="12">
-        <v>3</v>
-      </c>
-      <c r="P77" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
       <c r="R77" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S77" s="3"/>
       <c r="T77" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -4918,10 +5193,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D78" s="13">
         <v>0</v>
@@ -4930,7 +5205,7 @@
         <v>34</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G78" s="13">
         <v>12</v>
@@ -4939,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J78" s="13">
         <v>4</v>
@@ -4947,25 +5222,26 @@
       <c r="K78" s="13">
         <v>30</v>
       </c>
-      <c r="L78" s="13" t="s">
-        <v>75</v>
+      <c r="L78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M78" s="13">
+        <v>4</v>
+      </c>
+      <c r="N78" s="13">
+        <v>73</v>
       </c>
       <c r="O78" s="13">
-        <v>3</v>
-      </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
       <c r="R78" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S78" s="3"/>
       <c r="T78" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -4973,10 +5249,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D79" s="11">
         <v>0</v>
@@ -4985,7 +5261,7 @@
         <v>26</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G79" s="11">
         <v>3</v>
@@ -4994,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J79" s="11">
         <v>2</v>
@@ -5003,7 +5279,7 @@
         <v>25</v>
       </c>
       <c r="L79" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M79" s="11">
         <v>8</v>
@@ -5012,18 +5288,20 @@
         <v>4</v>
       </c>
       <c r="P79" s="3">
-        <v>3343</v>
+        <v>3088</v>
       </c>
       <c r="Q79" s="3">
-        <v>6954</v>
+        <v>7067</v>
       </c>
       <c r="R79" s="11">
         <f t="shared" si="1"/>
-        <v>48.07</v>
-      </c>
-      <c r="S79" s="3"/>
+        <v>43.7</v>
+      </c>
+      <c r="S79" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="T79" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5031,10 +5309,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D80" s="12">
         <v>0</v>
@@ -5043,7 +5321,7 @@
         <v>28</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G80" s="12">
         <v>4</v>
@@ -5052,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J80" s="12">
         <v>2</v>
@@ -5061,7 +5339,7 @@
         <v>25</v>
       </c>
       <c r="L80" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M80" s="12">
         <v>8</v>
@@ -5070,18 +5348,20 @@
         <v>4</v>
       </c>
       <c r="P80" s="3">
-        <v>0</v>
+        <v>3701</v>
       </c>
       <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="12" t="e">
+        <v>8405</v>
+      </c>
+      <c r="R80" s="12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S80" s="3"/>
+        <v>44.03</v>
+      </c>
+      <c r="S80" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="T80" s="12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -5089,10 +5369,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81" s="12">
         <v>0</v>
@@ -5101,7 +5381,7 @@
         <v>30</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G81" s="12">
         <v>5</v>
@@ -5110,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J81" s="12">
         <v>2</v>
@@ -5119,7 +5399,7 @@
         <v>25</v>
       </c>
       <c r="L81" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M81" s="12">
         <v>10</v>
@@ -5127,19 +5407,14 @@
       <c r="O81" s="12">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
       <c r="R81" s="12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S81" s="3"/>
       <c r="T81" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -5147,10 +5422,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D82" s="13">
         <v>0</v>
@@ -5159,7 +5434,7 @@
         <v>32</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G82" s="13">
         <v>6</v>
@@ -5168,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J82" s="13">
         <v>2</v>
@@ -5177,7 +5452,7 @@
         <v>25</v>
       </c>
       <c r="L82" s="11" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="M82" s="13">
         <v>10</v>
@@ -5185,19 +5460,14 @@
       <c r="O82" s="13">
         <v>4</v>
       </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
       <c r="R82" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S82" s="3"/>
       <c r="T82" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.3">
@@ -5205,10 +5475,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D83" s="11">
         <v>0</v>
@@ -5217,7 +5487,7 @@
         <v>22</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G83" s="11">
         <v>9</v>
@@ -5226,7 +5496,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J83" s="11">
         <v>2</v>
@@ -5241,18 +5511,20 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>1625</v>
+        <v>11058</v>
       </c>
       <c r="Q83" s="3">
-        <v>3487</v>
+        <v>23080</v>
       </c>
       <c r="R83" s="11">
-        <f t="shared" ref="R83:R86" si="2">ROUND( P83/Q83*100,2)</f>
-        <v>46.6</v>
-      </c>
-      <c r="S83" s="3"/>
+        <f t="shared" ref="R83:R110" si="2">ROUND( P83/Q83*100,2)</f>
+        <v>47.91</v>
+      </c>
+      <c r="S83" t="s">
+        <v>72</v>
+      </c>
       <c r="T83" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.3">
@@ -5260,10 +5532,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D84" s="12">
         <v>0</v>
@@ -5272,7 +5544,7 @@
         <v>26</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G84" s="12">
         <v>10</v>
@@ -5281,7 +5553,7 @@
         <v>2</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J84" s="12">
         <v>2</v>
@@ -5295,19 +5567,14 @@
       <c r="O84" s="12">
         <v>0</v>
       </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
-      </c>
-      <c r="R84" s="12" t="e">
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S84" s="3"/>
       <c r="T84" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.3">
@@ -5315,10 +5582,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -5327,7 +5594,7 @@
         <v>31</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G85" s="12">
         <v>11</v>
@@ -5336,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J85" s="12">
         <v>2</v>
@@ -5345,26 +5612,21 @@
         <v>25</v>
       </c>
       <c r="L85" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M85" s="12"/>
       <c r="N85" s="12"/>
       <c r="O85" s="12">
         <v>3</v>
       </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
-      </c>
-      <c r="R85" s="12" t="e">
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S85" s="3"/>
       <c r="T85" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.3">
@@ -5372,10 +5634,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D86" s="13">
         <v>0</v>
@@ -5384,7 +5646,7 @@
         <v>35</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G86" s="13">
         <v>12</v>
@@ -5393,7 +5655,7 @@
         <v>2</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J86" s="13">
         <v>2</v>
@@ -5402,109 +5664,2111 @@
         <v>25</v>
       </c>
       <c r="L86" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13">
         <v>3</v>
       </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="13" t="e">
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S86" s="3"/>
       <c r="T86" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
+      <c r="B87" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="12">
+        <v>0</v>
+      </c>
+      <c r="E87" s="12">
+        <v>20</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="12">
+        <v>3</v>
+      </c>
+      <c r="H87" s="12">
+        <v>3</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" s="12">
+        <v>0</v>
+      </c>
+      <c r="K87" s="12">
+        <v>45</v>
+      </c>
+      <c r="L87" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M87" s="12">
+        <v>1</v>
+      </c>
+      <c r="O87" s="12">
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <v>1550</v>
+      </c>
+      <c r="Q87">
+        <v>3605</v>
+      </c>
+      <c r="R87" s="11">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="S87" t="s">
+        <v>27</v>
+      </c>
+      <c r="T87" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
+      <c r="B88" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" s="12">
+        <v>0</v>
+      </c>
+      <c r="E88" s="12">
+        <v>20</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="12">
+        <v>4</v>
+      </c>
+      <c r="H88" s="12">
+        <v>3</v>
+      </c>
+      <c r="I88" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
+      <c r="K88" s="12">
+        <v>45</v>
+      </c>
+      <c r="L88" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M88" s="12">
+        <v>1</v>
+      </c>
+      <c r="O88" s="12">
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <v>1694</v>
+      </c>
+      <c r="Q88">
+        <v>3815</v>
+      </c>
+      <c r="R88" s="11">
+        <f t="shared" si="2"/>
+        <v>44.4</v>
+      </c>
+      <c r="S88" t="s">
+        <v>27</v>
+      </c>
+      <c r="T88" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
+      <c r="B89" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" s="12">
+        <v>0</v>
+      </c>
+      <c r="E89" s="12">
+        <v>28</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="12">
+        <v>4</v>
+      </c>
+      <c r="H89" s="12">
+        <v>4</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
+      <c r="K89" s="12">
+        <v>45</v>
+      </c>
+      <c r="L89" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M89" s="12">
+        <v>1</v>
+      </c>
+      <c r="O89" s="12">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <v>2648</v>
+      </c>
+      <c r="Q89">
+        <v>5888</v>
+      </c>
+      <c r="R89" s="11">
+        <f t="shared" si="2"/>
+        <v>44.97</v>
+      </c>
+      <c r="S89" t="s">
+        <v>27</v>
+      </c>
+      <c r="T89" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
+      <c r="B90" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0</v>
+      </c>
+      <c r="E90" s="12">
+        <v>28</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="12">
+        <v>4</v>
+      </c>
+      <c r="H90" s="12">
+        <v>5</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+      <c r="K90" s="12">
+        <v>45</v>
+      </c>
+      <c r="L90" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M90" s="12">
+        <v>1</v>
+      </c>
+      <c r="O90" s="12">
+        <v>1</v>
+      </c>
+      <c r="R90" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
+      <c r="B91" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91" s="12">
+        <v>0</v>
+      </c>
+      <c r="E91" s="12">
+        <v>30</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="12">
+        <v>10</v>
+      </c>
+      <c r="H91" s="12">
+        <v>1</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J91" s="12">
+        <v>3</v>
+      </c>
+      <c r="K91" s="12">
+        <v>30</v>
+      </c>
+      <c r="L91" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91">
+        <v>4913</v>
+      </c>
+      <c r="Q91">
+        <v>10743</v>
+      </c>
+      <c r="R91" s="11">
+        <f t="shared" si="2"/>
+        <v>45.73</v>
+      </c>
+      <c r="S91" t="s">
+        <v>47</v>
+      </c>
+      <c r="T91" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
+      <c r="B92" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="12">
+        <v>0</v>
+      </c>
+      <c r="E92" s="12">
+        <v>35</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="12">
+        <v>12</v>
+      </c>
+      <c r="H92" s="12">
+        <v>1</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J92" s="12">
+        <v>3</v>
+      </c>
+      <c r="K92" s="12">
+        <v>30</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M92" s="12">
+        <v>1</v>
+      </c>
+      <c r="O92" s="12">
+        <v>3</v>
+      </c>
+      <c r="R92" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
+      <c r="B93" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0</v>
+      </c>
+      <c r="E93" s="12">
+        <v>40</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="12">
+        <v>14</v>
+      </c>
+      <c r="H93" s="12">
+        <v>1</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J93" s="12">
+        <v>4</v>
+      </c>
+      <c r="K93" s="12">
+        <v>30</v>
+      </c>
+      <c r="L93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M93" s="12">
+        <v>1</v>
+      </c>
+      <c r="O93" s="12">
+        <v>2</v>
+      </c>
+      <c r="R93" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
+      <c r="B94" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0</v>
+      </c>
+      <c r="E94" s="12">
+        <v>45</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="12">
+        <v>16</v>
+      </c>
+      <c r="H94" s="12">
+        <v>1</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J94" s="12">
+        <v>4</v>
+      </c>
+      <c r="K94" s="12">
+        <v>30</v>
+      </c>
+      <c r="L94" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M94" s="12">
+        <v>1</v>
+      </c>
+      <c r="O94" s="12">
+        <v>1</v>
+      </c>
+      <c r="R94" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" s="12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
+      <c r="B95" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0</v>
+      </c>
+      <c r="E95" s="12">
+        <v>38</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="12">
+        <v>2</v>
+      </c>
+      <c r="H95" s="12">
+        <v>1</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="K95" s="12">
+        <v>35</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95">
+        <v>26591</v>
+      </c>
+      <c r="Q95">
+        <v>53124</v>
+      </c>
+      <c r="R95" s="11">
+        <f t="shared" si="2"/>
+        <v>50.05</v>
+      </c>
+      <c r="S95" t="s">
+        <v>85</v>
+      </c>
+      <c r="T95" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0</v>
+      </c>
+      <c r="E96" s="12">
+        <v>44</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="12">
+        <v>3</v>
+      </c>
+      <c r="H96" s="12">
+        <v>1</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K96" s="12">
+        <v>35</v>
+      </c>
+      <c r="L96" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="R96" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12">
+        <v>50</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="12">
+        <v>4</v>
+      </c>
+      <c r="H97" s="12">
+        <v>1</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K97" s="12">
+        <v>35</v>
+      </c>
+      <c r="L97" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="R97" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="B98" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0</v>
+      </c>
+      <c r="E98" s="12">
+        <v>50</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" s="12">
+        <v>4</v>
+      </c>
+      <c r="H98" s="12">
+        <v>1</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K98" s="12">
+        <v>35</v>
+      </c>
+      <c r="L98" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="R98" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T98" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="14">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="B99" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="14">
+        <v>40</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="14">
+        <v>7</v>
+      </c>
+      <c r="H99" s="14">
+        <v>2</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0</v>
+      </c>
+      <c r="K99" s="14">
+        <v>35</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M99" s="14">
+        <v>5</v>
+      </c>
+      <c r="O99" s="14">
+        <v>0</v>
+      </c>
+      <c r="P99" s="14">
+        <v>4746</v>
+      </c>
+      <c r="Q99" s="14">
+        <v>10558</v>
+      </c>
+      <c r="R99" s="15">
+        <f t="shared" si="2"/>
+        <v>44.95</v>
+      </c>
+      <c r="S99" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="T99" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="14">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="B100" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" s="14">
+        <v>0</v>
+      </c>
+      <c r="E100" s="14">
+        <v>46</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="14">
+        <v>8</v>
+      </c>
+      <c r="H100" s="14">
+        <v>2</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0</v>
+      </c>
+      <c r="K100" s="14">
+        <v>35</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M100" s="14">
+        <v>6</v>
+      </c>
+      <c r="O100" s="14">
+        <v>0</v>
+      </c>
+      <c r="R100" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T100" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="14">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="B101" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" s="14">
+        <v>0</v>
+      </c>
+      <c r="E101" s="14">
+        <v>52</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="14">
+        <v>9</v>
+      </c>
+      <c r="H101" s="14">
+        <v>2</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="14">
+        <v>35</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M101" s="14">
+        <v>7</v>
+      </c>
+      <c r="O101" s="14">
+        <v>0</v>
+      </c>
+      <c r="R101" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T101" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="14">
         <v>100</v>
       </c>
+      <c r="B102" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="14">
+        <v>58</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="14">
+        <v>10</v>
+      </c>
+      <c r="H102" s="14">
+        <v>2</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J102" s="14">
+        <v>0</v>
+      </c>
+      <c r="K102" s="14">
+        <v>35</v>
+      </c>
+      <c r="L102" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M102" s="14">
+        <v>8</v>
+      </c>
+      <c r="O102" s="14">
+        <v>0</v>
+      </c>
+      <c r="R102" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T102" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="14">
+        <v>101</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="14">
+        <v>0</v>
+      </c>
+      <c r="E103" s="14">
+        <v>35</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="14">
+        <v>16</v>
+      </c>
+      <c r="H103" s="14">
+        <v>1</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J103" s="14">
+        <v>8</v>
+      </c>
+      <c r="K103" s="14">
+        <v>20</v>
+      </c>
+      <c r="L103" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P103" s="14">
+        <v>26355</v>
+      </c>
+      <c r="Q103" s="14">
+        <v>53305</v>
+      </c>
+      <c r="R103" s="15">
+        <f t="shared" si="2"/>
+        <v>49.44</v>
+      </c>
+      <c r="S103" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="T103" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="14">
+        <v>102</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+      <c r="E104" s="14">
+        <v>40</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="14">
+        <v>16</v>
+      </c>
+      <c r="H104" s="14">
+        <v>1</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J104" s="14">
+        <v>9</v>
+      </c>
+      <c r="K104" s="14">
+        <v>20</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R104" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T104" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14">
+        <v>103</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="14">
+        <v>0</v>
+      </c>
+      <c r="E105" s="14">
+        <v>45</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="14">
+        <v>24</v>
+      </c>
+      <c r="H105" s="14">
+        <v>1</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J105" s="14">
+        <v>9</v>
+      </c>
+      <c r="K105" s="14">
+        <v>20</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R105" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T105" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14">
+        <v>104</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D106" s="14">
+        <v>0</v>
+      </c>
+      <c r="E106" s="14">
+        <v>50</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="14">
+        <v>24</v>
+      </c>
+      <c r="H106" s="14">
+        <v>1</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J106" s="14">
+        <v>10</v>
+      </c>
+      <c r="K106" s="14">
+        <v>20</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R106" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T106" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="14">
+        <v>105</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D107" s="14">
+        <v>0</v>
+      </c>
+      <c r="E107" s="14">
+        <v>25</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="14">
+        <v>11</v>
+      </c>
+      <c r="H107" s="14">
+        <v>2</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J107" s="14">
+        <v>2</v>
+      </c>
+      <c r="K107" s="14">
+        <v>40</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M107" s="14">
+        <v>15</v>
+      </c>
+      <c r="O107" s="14">
+        <v>4</v>
+      </c>
+      <c r="P107" s="14">
+        <v>10322</v>
+      </c>
+      <c r="Q107" s="14">
+        <v>22592</v>
+      </c>
+      <c r="R107" s="15">
+        <f t="shared" si="2"/>
+        <v>45.69</v>
+      </c>
+      <c r="S107" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T107" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="14">
+        <v>106</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="14">
+        <v>0</v>
+      </c>
+      <c r="E108" s="14">
+        <v>30</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="14">
+        <v>13</v>
+      </c>
+      <c r="H108" s="14">
+        <v>2</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J108" s="14">
+        <v>2</v>
+      </c>
+      <c r="K108" s="14">
+        <v>40</v>
+      </c>
+      <c r="L108" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M108" s="14">
+        <v>15</v>
+      </c>
+      <c r="O108" s="14">
+        <v>3</v>
+      </c>
+      <c r="R108" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T108" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14">
+        <v>107</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="14">
+        <v>0</v>
+      </c>
+      <c r="E109" s="14">
+        <v>35</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="14">
+        <v>11</v>
+      </c>
+      <c r="H109" s="14">
+        <v>3</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J109" s="14">
+        <v>2</v>
+      </c>
+      <c r="K109" s="14">
+        <v>40</v>
+      </c>
+      <c r="L109" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M109" s="14">
+        <v>20</v>
+      </c>
+      <c r="O109" s="14">
+        <v>3</v>
+      </c>
+      <c r="R109" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T109" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="14">
+        <v>108</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="14">
+        <v>0</v>
+      </c>
+      <c r="E110" s="14">
+        <v>40</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="14">
+        <v>13</v>
+      </c>
+      <c r="H110" s="14">
+        <v>3</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J110" s="14">
+        <v>2</v>
+      </c>
+      <c r="K110" s="14">
+        <v>40</v>
+      </c>
+      <c r="L110" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="M110" s="14">
+        <v>20</v>
+      </c>
+      <c r="O110" s="14">
+        <v>2</v>
+      </c>
+      <c r="R110" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T110" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="14">
+        <v>109</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="14">
+        <v>0</v>
+      </c>
+      <c r="E111" s="14">
+        <v>32</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="14">
+        <v>25</v>
+      </c>
+      <c r="H111" s="14">
+        <v>1</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J111" s="14">
+        <v>2</v>
+      </c>
+      <c r="K111" s="14">
+        <v>25</v>
+      </c>
+      <c r="L111" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P111" s="14">
+        <v>11334</v>
+      </c>
+      <c r="Q111" s="14">
+        <v>23114</v>
+      </c>
+      <c r="R111" s="15">
+        <f t="shared" ref="R111:R114" si="3">ROUND( P111/Q111*100,2)</f>
+        <v>49.04</v>
+      </c>
+      <c r="S111" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="T111" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14">
+        <v>110</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="14">
+        <v>0</v>
+      </c>
+      <c r="E112" s="14">
+        <v>36</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="14">
+        <v>25</v>
+      </c>
+      <c r="H112" s="14">
+        <v>1</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J112" s="14">
+        <v>3</v>
+      </c>
+      <c r="K112" s="14">
+        <v>25</v>
+      </c>
+      <c r="L112" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M112" s="14">
+        <v>3</v>
+      </c>
+      <c r="O112" s="14">
+        <v>5</v>
+      </c>
+      <c r="R112" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T112" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="14">
+        <v>111</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0</v>
+      </c>
+      <c r="E113" s="14">
+        <v>40</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="14">
+        <v>30</v>
+      </c>
+      <c r="H113" s="14">
+        <v>1</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J113" s="14">
+        <v>3</v>
+      </c>
+      <c r="K113" s="14">
+        <v>25</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" s="14">
+        <v>3</v>
+      </c>
+      <c r="O113" s="14">
+        <v>4</v>
+      </c>
+      <c r="R113" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T113" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14">
+        <v>112</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114" s="14">
+        <v>0</v>
+      </c>
+      <c r="E114" s="14">
+        <v>44</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="14">
+        <v>30</v>
+      </c>
+      <c r="H114" s="14">
+        <v>1</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J114" s="14">
+        <v>4</v>
+      </c>
+      <c r="K114" s="14">
+        <v>25</v>
+      </c>
+      <c r="L114" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="M114" s="14">
+        <v>3</v>
+      </c>
+      <c r="O114" s="14">
+        <v>3</v>
+      </c>
+      <c r="R114" s="15" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T114" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14">
+        <v>113</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="14">
+        <v>22</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G115" s="14">
+        <v>6</v>
+      </c>
+      <c r="H115" s="14">
+        <v>1</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J115" s="14">
+        <v>1</v>
+      </c>
+      <c r="K115" s="14">
+        <v>35</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P115" s="14">
+        <v>3879</v>
+      </c>
+      <c r="Q115" s="14">
+        <v>8462</v>
+      </c>
+      <c r="R115" s="15">
+        <f t="shared" ref="R115:R126" si="4">ROUND( P115/Q115*100,2)</f>
+        <v>45.84</v>
+      </c>
+      <c r="S115" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T115" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14">
+        <v>114</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D116" s="14">
+        <v>0</v>
+      </c>
+      <c r="E116" s="14">
+        <v>26</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G116" s="14">
+        <v>6</v>
+      </c>
+      <c r="H116" s="14">
+        <v>1</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J116" s="14">
+        <v>1</v>
+      </c>
+      <c r="K116" s="14">
+        <v>35</v>
+      </c>
+      <c r="L116" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M116" s="14">
+        <v>18</v>
+      </c>
+      <c r="O116" s="14">
+        <v>4</v>
+      </c>
+      <c r="R116" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T116" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="14">
+        <v>115</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" s="14">
+        <v>0</v>
+      </c>
+      <c r="E117" s="14">
+        <v>30</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G117" s="14">
+        <v>7</v>
+      </c>
+      <c r="H117" s="14">
+        <v>1</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J117" s="14">
+        <v>3</v>
+      </c>
+      <c r="K117" s="14">
+        <v>35</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M117" s="14">
+        <v>21</v>
+      </c>
+      <c r="O117" s="14">
+        <v>4</v>
+      </c>
+      <c r="R117" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T117" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="14">
+        <v>116</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="14">
+        <v>0</v>
+      </c>
+      <c r="E118" s="14">
+        <v>34</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G118" s="14">
+        <v>8</v>
+      </c>
+      <c r="H118" s="14">
+        <v>1</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J118" s="14">
+        <v>4</v>
+      </c>
+      <c r="K118" s="14">
+        <v>35</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M118" s="14">
+        <v>24</v>
+      </c>
+      <c r="O118" s="14">
+        <v>3</v>
+      </c>
+      <c r="R118" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T118" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="14">
+        <v>117</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="14">
+        <v>80</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="14">
+        <v>6</v>
+      </c>
+      <c r="H119" s="14">
+        <v>1</v>
+      </c>
+      <c r="I119" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J119" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K119" s="14">
+        <v>10</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P119" s="14">
+        <v>27054</v>
+      </c>
+      <c r="Q119" s="14">
+        <v>53571</v>
+      </c>
+      <c r="R119" s="15">
+        <f t="shared" si="4"/>
+        <v>50.5</v>
+      </c>
+      <c r="S119" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="T119" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="14">
+        <v>118</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="14">
+        <v>80</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="14">
+        <v>6</v>
+      </c>
+      <c r="H120" s="14">
+        <v>1</v>
+      </c>
+      <c r="I120" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J120" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K120" s="14">
+        <v>10</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" s="14">
+        <v>30</v>
+      </c>
+      <c r="O120" s="14">
+        <v>5</v>
+      </c>
+      <c r="R120" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T120" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="14">
+        <v>119</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="14">
+        <v>0</v>
+      </c>
+      <c r="E121" s="14">
+        <v>100</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="14">
+        <v>6</v>
+      </c>
+      <c r="H121" s="14">
+        <v>1</v>
+      </c>
+      <c r="I121" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J121" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K121" s="14">
+        <v>10</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M121" s="14">
+        <v>30</v>
+      </c>
+      <c r="O121" s="14">
+        <v>4</v>
+      </c>
+      <c r="R121" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T121" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="14">
+        <v>120</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D122" s="14">
+        <v>0</v>
+      </c>
+      <c r="E122" s="14">
+        <v>80</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="14">
+        <v>6</v>
+      </c>
+      <c r="H122" s="14">
+        <v>1</v>
+      </c>
+      <c r="I122" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J122" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K122" s="14">
+        <v>10</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M122" s="14">
+        <v>30</v>
+      </c>
+      <c r="O122" s="14">
+        <v>3</v>
+      </c>
+      <c r="R122" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T122" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="14">
+        <v>121</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" s="14">
+        <v>0</v>
+      </c>
+      <c r="E123" s="14">
+        <v>25</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="14">
+        <v>14</v>
+      </c>
+      <c r="H123" s="14">
+        <v>1</v>
+      </c>
+      <c r="I123" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J123" s="14">
+        <v>1</v>
+      </c>
+      <c r="K123" s="14">
+        <v>20</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M123" s="14">
+        <v>3</v>
+      </c>
+      <c r="O123" s="14">
+        <v>3</v>
+      </c>
+      <c r="P123" s="14">
+        <v>6550</v>
+      </c>
+      <c r="Q123" s="14">
+        <v>14525</v>
+      </c>
+      <c r="R123" s="15">
+        <f t="shared" si="4"/>
+        <v>45.09</v>
+      </c>
+      <c r="S123" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="T123" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="14">
+        <v>122</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="14">
+        <v>0</v>
+      </c>
+      <c r="E124" s="14">
+        <v>25</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="14">
+        <v>18</v>
+      </c>
+      <c r="H124" s="14">
+        <v>1</v>
+      </c>
+      <c r="I124" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J124" s="14">
+        <v>1</v>
+      </c>
+      <c r="K124" s="14">
+        <v>20</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M124" s="14">
+        <v>4</v>
+      </c>
+      <c r="O124" s="14">
+        <v>3</v>
+      </c>
+      <c r="R124" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T124" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="14">
+        <v>123</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D125" s="14">
+        <v>0</v>
+      </c>
+      <c r="E125" s="14">
+        <v>35</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="14">
+        <v>18</v>
+      </c>
+      <c r="H125" s="14">
+        <v>1</v>
+      </c>
+      <c r="I125" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J125" s="14">
+        <v>1</v>
+      </c>
+      <c r="K125" s="14">
+        <v>20</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M125" s="14">
+        <v>4</v>
+      </c>
+      <c r="O125" s="14">
+        <v>2</v>
+      </c>
+      <c r="R125" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T125" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="14">
+        <v>124</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="14">
+        <v>0</v>
+      </c>
+      <c r="E126" s="14">
+        <v>25</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="14">
+        <v>22</v>
+      </c>
+      <c r="H126" s="14">
+        <v>1</v>
+      </c>
+      <c r="I126" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J126" s="14">
+        <v>1</v>
+      </c>
+      <c r="K126" s="14">
+        <v>20</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="M126" s="14">
+        <v>5</v>
+      </c>
+      <c r="O126" s="14">
+        <v>2</v>
+      </c>
+      <c r="R126" s="15" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T126" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AA110"/>
   <mergeCells count="4">
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:J1"/>
@@ -5514,4 +7778,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>